--- a/Medical Insurance Project/notebooks/bmi frecuency table.xlsx
+++ b/Medical Insurance Project/notebooks/bmi frecuency table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,7 +485,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30.8</v>
+        <v>30.495</v>
       </c>
       <c r="B4" t="n">
         <v>8</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>31.35</v>
+        <v>30.875</v>
       </c>
       <c r="B5" t="n">
         <v>8</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>30.495</v>
+        <v>31.35</v>
       </c>
       <c r="B6" t="n">
         <v>8</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30.875</v>
+        <v>30.8</v>
       </c>
       <c r="B7" t="n">
         <v>8</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>25.46</v>
+        <v>33.33</v>
       </c>
       <c r="B10" t="n">
         <v>7</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>38.06</v>
+        <v>35.2</v>
       </c>
       <c r="B11" t="n">
         <v>7</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>32.11</v>
+        <v>25.8</v>
       </c>
       <c r="B12" t="n">
         <v>7</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>27.36</v>
+        <v>32.775</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>35.2</v>
+        <v>27.645</v>
       </c>
       <c r="B14" t="n">
         <v>7</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>32.775</v>
+        <v>32.11</v>
       </c>
       <c r="B15" t="n">
         <v>7</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>25.8</v>
+        <v>38.06</v>
       </c>
       <c r="B16" t="n">
         <v>7</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>34.8</v>
+        <v>25.46</v>
       </c>
       <c r="B17" t="n">
         <v>7</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>24.32</v>
+        <v>30.59</v>
       </c>
       <c r="B18" t="n">
         <v>7</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>33.33</v>
+        <v>27.36</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>30.59</v>
+        <v>24.32</v>
       </c>
       <c r="B20" t="n">
         <v>7</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>27.645</v>
+        <v>34.8</v>
       </c>
       <c r="B21" t="n">
         <v>7</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>29.92</v>
+        <v>19.95</v>
       </c>
       <c r="B23" t="n">
         <v>6</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>31.73</v>
+        <v>29.92</v>
       </c>
       <c r="B24" t="n">
         <v>6</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>28.595</v>
+        <v>30.115</v>
       </c>
       <c r="B25" t="n">
         <v>6</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>29.83</v>
+        <v>26.6</v>
       </c>
       <c r="B26" t="n">
         <v>6</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>33</v>
+        <v>30.2</v>
       </c>
       <c r="B27" t="n">
         <v>6</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27.74</v>
+        <v>35.53</v>
       </c>
       <c r="B28" t="n">
         <v>6</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>37.1</v>
+        <v>33.63</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>25.175</v>
+        <v>28.595</v>
       </c>
       <c r="B30" t="n">
         <v>6</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>26.41</v>
+        <v>37.1</v>
       </c>
       <c r="B31" t="n">
         <v>6</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30.2</v>
+        <v>31.73</v>
       </c>
       <c r="B32" t="n">
         <v>6</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>35.53</v>
+        <v>33</v>
       </c>
       <c r="B33" t="n">
         <v>6</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>26.6</v>
+        <v>27.74</v>
       </c>
       <c r="B34" t="n">
         <v>6</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33.63</v>
+        <v>29.83</v>
       </c>
       <c r="B35" t="n">
         <v>6</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>30.115</v>
+        <v>25.175</v>
       </c>
       <c r="B36" t="n">
         <v>6</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>19.95</v>
+        <v>26.41</v>
       </c>
       <c r="B37" t="n">
         <v>6</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>28.9</v>
+        <v>27.835</v>
       </c>
       <c r="B38" t="n">
         <v>5</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>22.515</v>
+        <v>28.9</v>
       </c>
       <c r="B40" t="n">
         <v>5</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>30.78</v>
+        <v>25.08</v>
       </c>
       <c r="B41" t="n">
         <v>5</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>26.03</v>
+        <v>28.5</v>
       </c>
       <c r="B42" t="n">
         <v>5</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>25.08</v>
+        <v>26.695</v>
       </c>
       <c r="B43" t="n">
         <v>5</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>28.5</v>
+        <v>23.21</v>
       </c>
       <c r="B44" t="n">
         <v>5</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>31.825</v>
+        <v>32.395</v>
       </c>
       <c r="B45" t="n">
         <v>5</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23.655</v>
+        <v>31.825</v>
       </c>
       <c r="B46" t="n">
         <v>5</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>27.6</v>
+        <v>33.155</v>
       </c>
       <c r="B47" t="n">
         <v>5</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>33.155</v>
+        <v>29.64</v>
       </c>
       <c r="B48" t="n">
         <v>5</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>26.695</v>
+        <v>36.85</v>
       </c>
       <c r="B49" t="n">
         <v>5</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>29.7</v>
+        <v>25.3</v>
       </c>
       <c r="B50" t="n">
         <v>5</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>28.785</v>
+        <v>23.655</v>
       </c>
       <c r="B52" t="n">
         <v>5</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>30.4</v>
+        <v>28.785</v>
       </c>
       <c r="B53" t="n">
         <v>5</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>25.3</v>
+        <v>29.7</v>
       </c>
       <c r="B54" t="n">
         <v>5</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>36.85</v>
+        <v>28.975</v>
       </c>
       <c r="B55" t="n">
         <v>5</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>27.835</v>
+        <v>34.2</v>
       </c>
       <c r="B56" t="n">
         <v>5</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>29.64</v>
+        <v>33.345</v>
       </c>
       <c r="B57" t="n">
         <v>5</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>26.315</v>
+        <v>26.03</v>
       </c>
       <c r="B58" t="n">
         <v>5</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>28.975</v>
+        <v>28.025</v>
       </c>
       <c r="B59" t="n">
         <v>5</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>32.395</v>
+        <v>26.315</v>
       </c>
       <c r="B60" t="n">
         <v>5</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>23.21</v>
+        <v>23.18</v>
       </c>
       <c r="B61" t="n">
         <v>5</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>23.18</v>
+        <v>30.4</v>
       </c>
       <c r="B62" t="n">
         <v>5</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>31.92</v>
+        <v>22.515</v>
       </c>
       <c r="B63" t="n">
         <v>5</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>28.025</v>
+        <v>25.84</v>
       </c>
       <c r="B64" t="n">
         <v>5</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>25.84</v>
+        <v>31.92</v>
       </c>
       <c r="B65" t="n">
         <v>5</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>33.345</v>
+        <v>30.78</v>
       </c>
       <c r="B66" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>34.2</v>
+        <v>27.6</v>
       </c>
       <c r="B67" t="n">
         <v>5</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>29.81</v>
+        <v>34.105</v>
       </c>
       <c r="B68" t="n">
         <v>4</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>31.065</v>
+        <v>33.82</v>
       </c>
       <c r="B69" t="n">
         <v>4</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>37.29</v>
+        <v>34.21</v>
       </c>
       <c r="B70" t="n">
         <v>4</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>35.625</v>
+        <v>31.13</v>
       </c>
       <c r="B71" t="n">
         <v>4</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>26.125</v>
+        <v>21.85</v>
       </c>
       <c r="B72" t="n">
         <v>4</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>27.93</v>
+        <v>27.72</v>
       </c>
       <c r="B73" t="n">
         <v>4</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>24.795</v>
+        <v>33.915</v>
       </c>
       <c r="B74" t="n">
         <v>4</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>36.3</v>
+        <v>35.3</v>
       </c>
       <c r="B75" t="n">
         <v>4</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>26.885</v>
+        <v>20.235</v>
       </c>
       <c r="B76" t="n">
         <v>4</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>21.85</v>
+        <v>36.955</v>
       </c>
       <c r="B77" t="n">
         <v>4</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>31.13</v>
+        <v>30.5</v>
       </c>
       <c r="B78" t="n">
         <v>4</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>35.3</v>
+        <v>36.3</v>
       </c>
       <c r="B79" t="n">
         <v>4</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>27.72</v>
+        <v>27.265</v>
       </c>
       <c r="B80" t="n">
         <v>4</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>42.13</v>
+        <v>35.86</v>
       </c>
       <c r="B81" t="n">
         <v>4</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>33.44</v>
+        <v>29.735</v>
       </c>
       <c r="B82" t="n">
         <v>4</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>25.74</v>
+        <v>21.755</v>
       </c>
       <c r="B83" t="n">
         <v>4</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>27.55</v>
+        <v>30.02</v>
       </c>
       <c r="B84" t="n">
         <v>4</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>31.79</v>
+        <v>30.21</v>
       </c>
       <c r="B85" t="n">
         <v>4</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>28.12</v>
+        <v>36.08</v>
       </c>
       <c r="B86" t="n">
         <v>4</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>25.6</v>
+        <v>25.74</v>
       </c>
       <c r="B87" t="n">
         <v>4</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>30.5</v>
+        <v>27.93</v>
       </c>
       <c r="B88" t="n">
         <v>4</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>34.105</v>
+        <v>26.4</v>
       </c>
       <c r="B89" t="n">
         <v>4</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>29.26</v>
+        <v>33.44</v>
       </c>
       <c r="B90" t="n">
         <v>4</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>26.4</v>
+        <v>26.22</v>
       </c>
       <c r="B91" t="n">
         <v>4</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>30.02</v>
+        <v>27.1</v>
       </c>
       <c r="B92" t="n">
         <v>4</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>22.61</v>
+        <v>34.4</v>
       </c>
       <c r="B93" t="n">
         <v>4</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>35.86</v>
+        <v>24.605</v>
       </c>
       <c r="B94" t="n">
         <v>4</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>34.21</v>
+        <v>42.13</v>
       </c>
       <c r="B95" t="n">
         <v>4</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>36.08</v>
+        <v>28.215</v>
       </c>
       <c r="B96" t="n">
         <v>4</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>30.21</v>
+        <v>29.8</v>
       </c>
       <c r="B97" t="n">
         <v>4</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>24.13</v>
+        <v>27.83</v>
       </c>
       <c r="B98" t="n">
         <v>4</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>29.735</v>
+        <v>31.065</v>
       </c>
       <c r="B99" t="n">
         <v>4</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>27.265</v>
+        <v>37.29</v>
       </c>
       <c r="B100" t="n">
         <v>4</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>29.8</v>
+        <v>22.135</v>
       </c>
       <c r="B101" t="n">
         <v>4</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>20.235</v>
+        <v>27.55</v>
       </c>
       <c r="B102" t="n">
         <v>4</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>28.215</v>
+        <v>24.13</v>
       </c>
       <c r="B103" t="n">
         <v>4</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>27.83</v>
+        <v>22.61</v>
       </c>
       <c r="B104" t="n">
         <v>4</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>33.11</v>
+        <v>24.795</v>
       </c>
       <c r="B105" t="n">
         <v>4</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>33.1</v>
+        <v>26.125</v>
       </c>
       <c r="B106" t="n">
         <v>4</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>32.68</v>
+        <v>26.885</v>
       </c>
       <c r="B107" t="n">
         <v>4</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>29.6</v>
+        <v>22.895</v>
       </c>
       <c r="B108" t="n">
         <v>4</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>33.915</v>
+        <v>35.625</v>
       </c>
       <c r="B110" t="n">
         <v>4</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>22.895</v>
+        <v>35.815</v>
       </c>
       <c r="B111" t="n">
         <v>4</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>33.82</v>
+        <v>35.97</v>
       </c>
       <c r="B112" t="n">
         <v>4</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>35.815</v>
+        <v>33.11</v>
       </c>
       <c r="B113" t="n">
         <v>4</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>36.67</v>
+        <v>24.7</v>
       </c>
       <c r="B114" t="n">
         <v>4</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>24.605</v>
+        <v>29.6</v>
       </c>
       <c r="B115" t="n">
         <v>4</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>32.965</v>
+        <v>34.43</v>
       </c>
       <c r="B116" t="n">
         <v>4</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>24.7</v>
+        <v>29.26</v>
       </c>
       <c r="B117" t="n">
         <v>4</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>36.955</v>
+        <v>28.12</v>
       </c>
       <c r="B118" t="n">
         <v>4</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>27.1</v>
+        <v>31.79</v>
       </c>
       <c r="B119" t="n">
         <v>4</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>21.755</v>
+        <v>32.68</v>
       </c>
       <c r="B120" t="n">
         <v>4</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>34.43</v>
+        <v>36.67</v>
       </c>
       <c r="B121" t="n">
         <v>4</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>35.97</v>
+        <v>29.81</v>
       </c>
       <c r="B122" t="n">
         <v>4</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>26.22</v>
+        <v>32.965</v>
       </c>
       <c r="B123" t="n">
         <v>4</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>34.4</v>
+        <v>25.6</v>
       </c>
       <c r="B124" t="n">
         <v>4</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>22.135</v>
+        <v>33.1</v>
       </c>
       <c r="B125" t="n">
         <v>4</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>36.19</v>
+        <v>33.25</v>
       </c>
       <c r="B126" t="n">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>28</v>
+        <v>38.17</v>
       </c>
       <c r="B127" t="n">
         <v>3</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>28.69</v>
+        <v>38</v>
       </c>
       <c r="B128" t="n">
         <v>3</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>29.9</v>
+        <v>33.88</v>
       </c>
       <c r="B129" t="n">
         <v>3</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>24.225</v>
+        <v>21.47</v>
       </c>
       <c r="B130" t="n">
         <v>3</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>28.6</v>
+        <v>46.53</v>
       </c>
       <c r="B131" t="n">
         <v>3</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>18.335</v>
+        <v>39.05</v>
       </c>
       <c r="B132" t="n">
         <v>3</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>37.05</v>
+        <v>33.7</v>
       </c>
       <c r="B133" t="n">
         <v>3</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>34.77</v>
+        <v>41.91</v>
       </c>
       <c r="B134" t="n">
         <v>3</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>31.255</v>
+        <v>25.745</v>
       </c>
       <c r="B135" t="n">
         <v>3</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>36.63</v>
+        <v>37.07</v>
       </c>
       <c r="B136" t="n">
         <v>3</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>34.32</v>
+        <v>31.4</v>
       </c>
       <c r="B137" t="n">
         <v>3</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>25.935</v>
+        <v>36.48</v>
       </c>
       <c r="B138" t="n">
         <v>3</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>29.925</v>
+        <v>24.035</v>
       </c>
       <c r="B139" t="n">
         <v>3</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>21.66</v>
+        <v>25.27</v>
       </c>
       <c r="B140" t="n">
         <v>3</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>23.845</v>
+        <v>25.9</v>
       </c>
       <c r="B141" t="n">
         <v>3</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>37.07</v>
+        <v>38.39</v>
       </c>
       <c r="B142" t="n">
         <v>3</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>25.745</v>
+        <v>30.685</v>
       </c>
       <c r="B143" t="n">
         <v>3</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>25.9</v>
+        <v>40.15</v>
       </c>
       <c r="B144" t="n">
         <v>3</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>26.98</v>
+        <v>39.16</v>
       </c>
       <c r="B145" t="n">
         <v>3</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>39.49</v>
+        <v>19.8</v>
       </c>
       <c r="B146" t="n">
         <v>3</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>38.28</v>
+        <v>35.75</v>
       </c>
       <c r="B147" t="n">
         <v>3</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>31.6</v>
+        <v>40.565</v>
       </c>
       <c r="B148" t="n">
         <v>3</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>28.93</v>
+        <v>18.335</v>
       </c>
       <c r="B149" t="n">
         <v>3</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>21.47</v>
+        <v>36.765</v>
       </c>
       <c r="B150" t="n">
         <v>3</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>29.48</v>
+        <v>38.095</v>
       </c>
       <c r="B151" t="n">
         <v>3</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>36.86</v>
+        <v>31.255</v>
       </c>
       <c r="B152" t="n">
         <v>3</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>23.98</v>
+        <v>30.03</v>
       </c>
       <c r="B153" t="n">
         <v>3</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>34.96</v>
+        <v>25.365</v>
       </c>
       <c r="B154" t="n">
         <v>3</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>36.1</v>
+        <v>21.66</v>
       </c>
       <c r="B155" t="n">
         <v>3</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>33.535</v>
+        <v>17.29</v>
       </c>
       <c r="B156" t="n">
         <v>3</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>22.42</v>
+        <v>28.93</v>
       </c>
       <c r="B157" t="n">
         <v>3</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>38.17</v>
+        <v>33.4</v>
       </c>
       <c r="B158" t="n">
         <v>3</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>30.685</v>
+        <v>22.99</v>
       </c>
       <c r="B159" t="n">
         <v>3</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>41.325</v>
+        <v>27.7</v>
       </c>
       <c r="B161" t="n">
         <v>3</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>27.94</v>
+        <v>24.3</v>
       </c>
       <c r="B162" t="n">
         <v>3</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>37.4</v>
+        <v>24.51</v>
       </c>
       <c r="B163" t="n">
         <v>3</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>25.555</v>
+        <v>41.325</v>
       </c>
       <c r="B164" t="n">
         <v>3</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>38.095</v>
+        <v>29.925</v>
       </c>
       <c r="B165" t="n">
         <v>3</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>46.53</v>
+        <v>31.02</v>
       </c>
       <c r="B166" t="n">
         <v>3</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>23.75</v>
+        <v>39.49</v>
       </c>
       <c r="B167" t="n">
         <v>3</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>23.37</v>
+        <v>34.77</v>
       </c>
       <c r="B168" t="n">
         <v>3</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>28.05</v>
+        <v>25.555</v>
       </c>
       <c r="B169" t="n">
         <v>3</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>24.42</v>
+        <v>28.6</v>
       </c>
       <c r="B170" t="n">
         <v>3</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>39.16</v>
+        <v>23.98</v>
       </c>
       <c r="B171" t="n">
         <v>3</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>30.03</v>
+        <v>37.4</v>
       </c>
       <c r="B172" t="n">
         <v>3</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>39.6</v>
+        <v>23.75</v>
       </c>
       <c r="B173" t="n">
         <v>3</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>38.83</v>
+        <v>23.37</v>
       </c>
       <c r="B174" t="n">
         <v>3</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>37.43</v>
+        <v>36.63</v>
       </c>
       <c r="B175" t="n">
         <v>3</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>31.9</v>
+        <v>37.05</v>
       </c>
       <c r="B176" t="n">
         <v>3</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>41.47</v>
+        <v>29.48</v>
       </c>
       <c r="B177" t="n">
         <v>3</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>30.3</v>
+        <v>27.94</v>
       </c>
       <c r="B178" t="n">
         <v>3</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>32.2</v>
+        <v>31.6</v>
       </c>
       <c r="B179" t="n">
         <v>3</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>30.9</v>
+        <v>29.9</v>
       </c>
       <c r="B180" t="n">
         <v>3</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>31.02</v>
+        <v>31.9</v>
       </c>
       <c r="B181" t="n">
         <v>3</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>39.05</v>
+        <v>38.28</v>
       </c>
       <c r="B182" t="n">
         <v>3</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>31.4</v>
+        <v>33.535</v>
       </c>
       <c r="B183" t="n">
         <v>3</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>38.39</v>
+        <v>28</v>
       </c>
       <c r="B184" t="n">
         <v>3</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>33.7</v>
+        <v>32.8</v>
       </c>
       <c r="B185" t="n">
         <v>3</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>24.035</v>
+        <v>26.98</v>
       </c>
       <c r="B186" t="n">
         <v>3</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>32.8</v>
+        <v>36.1</v>
       </c>
       <c r="B187" t="n">
         <v>3</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>35.75</v>
+        <v>28.69</v>
       </c>
       <c r="B188" t="n">
         <v>3</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>36.48</v>
+        <v>34.96</v>
       </c>
       <c r="B189" t="n">
         <v>3</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>25.27</v>
+        <v>25.935</v>
       </c>
       <c r="B190" t="n">
         <v>3</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>38</v>
+        <v>22.42</v>
       </c>
       <c r="B191" t="n">
         <v>3</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>27.7</v>
+        <v>36.19</v>
       </c>
       <c r="B192" t="n">
         <v>3</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>33.88</v>
+        <v>28.05</v>
       </c>
       <c r="B193" t="n">
         <v>3</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>41.91</v>
+        <v>24.225</v>
       </c>
       <c r="B194" t="n">
         <v>3</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>24.51</v>
+        <v>39.6</v>
       </c>
       <c r="B195" t="n">
         <v>3</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>33.25</v>
+        <v>37.43</v>
       </c>
       <c r="B196" t="n">
         <v>3</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>36.765</v>
+        <v>36.86</v>
       </c>
       <c r="B197" t="n">
         <v>3</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>33.4</v>
+        <v>24.42</v>
       </c>
       <c r="B198" t="n">
         <v>3</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>22.99</v>
+        <v>23.845</v>
       </c>
       <c r="B199" t="n">
         <v>3</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>40.565</v>
+        <v>24.6</v>
       </c>
       <c r="B200" t="n">
         <v>3</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>40.15</v>
+        <v>41.47</v>
       </c>
       <c r="B201" t="n">
         <v>3</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>19.8</v>
+        <v>34.32</v>
       </c>
       <c r="B202" t="n">
         <v>3</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>24.3</v>
+        <v>30.9</v>
       </c>
       <c r="B203" t="n">
         <v>3</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>24.6</v>
+        <v>32.2</v>
       </c>
       <c r="B204" t="n">
         <v>3</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>25.365</v>
+        <v>22.705</v>
       </c>
       <c r="B206" t="n">
         <v>3</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>17.29</v>
+        <v>38.83</v>
       </c>
       <c r="B207" t="n">
         <v>3</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>22.705</v>
+        <v>30.3</v>
       </c>
       <c r="B208" t="n">
         <v>3</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>27.17</v>
+        <v>36.2</v>
       </c>
       <c r="B209" t="n">
         <v>2</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>37.18</v>
+        <v>40.185</v>
       </c>
       <c r="B210" t="n">
         <v>2</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>32.205</v>
+        <v>36.575</v>
       </c>
       <c r="B211" t="n">
         <v>2</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>35.72</v>
+        <v>24.1</v>
       </c>
       <c r="B212" t="n">
         <v>2</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>28.4</v>
+        <v>20.6</v>
       </c>
       <c r="B213" t="n">
         <v>2</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>39.5</v>
+        <v>33.77</v>
       </c>
       <c r="B214" t="n">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>32.56</v>
+        <v>38.38</v>
       </c>
       <c r="B215" t="n">
         <v>2</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>32.67</v>
+        <v>40.28</v>
       </c>
       <c r="B216" t="n">
         <v>2</v>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>22.23</v>
+        <v>26.7</v>
       </c>
       <c r="B217" t="n">
         <v>2</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>30</v>
+        <v>24.31</v>
       </c>
       <c r="B218" t="n">
         <v>2</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>38.94</v>
+        <v>26.51</v>
       </c>
       <c r="B219" t="n">
         <v>2</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>44.22</v>
+        <v>16.815</v>
       </c>
       <c r="B220" t="n">
         <v>2</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>31</v>
+        <v>26.18</v>
       </c>
       <c r="B221" t="n">
         <v>2</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>35.31</v>
+        <v>23.6</v>
       </c>
       <c r="B222" t="n">
         <v>2</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>20.045</v>
+        <v>29.15</v>
       </c>
       <c r="B223" t="n">
         <v>2</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>30.25</v>
+        <v>41.8</v>
       </c>
       <c r="B224" t="n">
         <v>2</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>25.7</v>
+        <v>20.52</v>
       </c>
       <c r="B225" t="n">
         <v>2</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>29.355</v>
+        <v>23.7</v>
       </c>
       <c r="B226" t="n">
         <v>2</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>24.86</v>
+        <v>41.14</v>
       </c>
       <c r="B227" t="n">
         <v>2</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>32.015</v>
+        <v>28.405</v>
       </c>
       <c r="B228" t="n">
         <v>2</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>30.69</v>
+        <v>22.6</v>
       </c>
       <c r="B229" t="n">
         <v>2</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>20.52</v>
+        <v>30.1</v>
       </c>
       <c r="B230" t="n">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>16.815</v>
+        <v>23.56</v>
       </c>
       <c r="B231" t="n">
         <v>2</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>22.6</v>
+        <v>30.25</v>
       </c>
       <c r="B232" t="n">
         <v>2</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>32.7</v>
+        <v>31.5</v>
       </c>
       <c r="B233" t="n">
         <v>2</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>25</v>
+        <v>21.4</v>
       </c>
       <c r="B234" t="n">
         <v>2</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>23.6</v>
+        <v>35.8</v>
       </c>
       <c r="B235" t="n">
         <v>2</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>24.31</v>
+        <v>20.045</v>
       </c>
       <c r="B236" t="n">
         <v>2</v>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>37.62</v>
+        <v>32.67</v>
       </c>
       <c r="B237" t="n">
         <v>2</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>30.14</v>
+        <v>32.56</v>
       </c>
       <c r="B238" t="n">
         <v>2</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>23.4</v>
+        <v>19.855</v>
       </c>
       <c r="B239" t="n">
         <v>2</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>38.6</v>
+        <v>29.355</v>
       </c>
       <c r="B240" t="n">
         <v>2</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>36</v>
+        <v>39.5</v>
       </c>
       <c r="B241" t="n">
         <v>2</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>34.7</v>
+        <v>32.34</v>
       </c>
       <c r="B242" t="n">
         <v>2</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>28.3</v>
+        <v>21.375</v>
       </c>
       <c r="B243" t="n">
         <v>2</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>20.8</v>
+        <v>33.99</v>
       </c>
       <c r="B244" t="n">
         <v>2</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>21.78</v>
+        <v>25</v>
       </c>
       <c r="B245" t="n">
         <v>2</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>41.23</v>
+        <v>44.22</v>
       </c>
       <c r="B246" t="n">
         <v>2</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>38.38</v>
+        <v>37.18</v>
       </c>
       <c r="B247" t="n">
         <v>2</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>29</v>
+        <v>25.7</v>
       </c>
       <c r="B248" t="n">
         <v>2</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>23.7</v>
+        <v>31</v>
       </c>
       <c r="B249" t="n">
         <v>2</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>29.15</v>
+        <v>35.31</v>
       </c>
       <c r="B250" t="n">
         <v>2</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>21.375</v>
+        <v>23.465</v>
       </c>
       <c r="B251" t="n">
         <v>2</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>31.54</v>
+        <v>38.94</v>
       </c>
       <c r="B252" t="n">
         <v>2</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>42.4</v>
+        <v>28.27</v>
       </c>
       <c r="B253" t="n">
         <v>2</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>39.7</v>
+        <v>35.91</v>
       </c>
       <c r="B254" t="n">
         <v>2</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>29.3</v>
+        <v>26.79</v>
       </c>
       <c r="B255" t="n">
         <v>2</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>22.8</v>
+        <v>31.54</v>
       </c>
       <c r="B256" t="n">
         <v>2</v>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>27.2</v>
+        <v>42.4</v>
       </c>
       <c r="B257" t="n">
         <v>2</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>31.68</v>
+        <v>42.9</v>
       </c>
       <c r="B258" t="n">
         <v>2</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>30.1</v>
+        <v>39.7</v>
       </c>
       <c r="B259" t="n">
         <v>2</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>40.28</v>
+        <v>29.3</v>
       </c>
       <c r="B260" t="n">
         <v>2</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>28.405</v>
+        <v>38.6</v>
       </c>
       <c r="B261" t="n">
         <v>2</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>37.335</v>
+        <v>23.4</v>
       </c>
       <c r="B262" t="n">
         <v>2</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>26.7</v>
+        <v>24.86</v>
       </c>
       <c r="B263" t="n">
         <v>2</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>24.1</v>
+        <v>32.6</v>
       </c>
       <c r="B264" t="n">
         <v>2</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>36.2</v>
+        <v>30.14</v>
       </c>
       <c r="B265" t="n">
         <v>2</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>40.185</v>
+        <v>30</v>
       </c>
       <c r="B266" t="n">
         <v>2</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>34.58</v>
+        <v>33.725</v>
       </c>
       <c r="B267" t="n">
         <v>2</v>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>35.91</v>
+        <v>40.26</v>
       </c>
       <c r="B268" t="n">
         <v>2</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>28.27</v>
+        <v>29</v>
       </c>
       <c r="B269" t="n">
         <v>2</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>32.34</v>
+        <v>27.455</v>
       </c>
       <c r="B270" t="n">
         <v>2</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>33.99</v>
+        <v>22.8</v>
       </c>
       <c r="B271" t="n">
         <v>2</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>23.465</v>
+        <v>31.445</v>
       </c>
       <c r="B272" t="n">
         <v>2</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>41.14</v>
+        <v>27.4</v>
       </c>
       <c r="B273" t="n">
         <v>2</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>41.8</v>
+        <v>39.805</v>
       </c>
       <c r="B274" t="n">
         <v>2</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>26.18</v>
+        <v>32.23</v>
       </c>
       <c r="B275" t="n">
         <v>2</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>26.51</v>
+        <v>29.59</v>
       </c>
       <c r="B276" t="n">
         <v>2</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>40.26</v>
+        <v>22.3</v>
       </c>
       <c r="B277" t="n">
         <v>2</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>36.575</v>
+        <v>30.305</v>
       </c>
       <c r="B278" t="n">
         <v>2</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>31.5</v>
+        <v>26.73</v>
       </c>
       <c r="B279" t="n">
         <v>2</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>39.805</v>
+        <v>31.635</v>
       </c>
       <c r="B280" t="n">
         <v>2</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>29.59</v>
+        <v>31.57</v>
       </c>
       <c r="B281" t="n">
         <v>2</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>27.4</v>
+        <v>32.01</v>
       </c>
       <c r="B282" t="n">
         <v>2</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>32.01</v>
+        <v>28.1</v>
       </c>
       <c r="B283" t="n">
         <v>2</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>28.1</v>
+        <v>26.8</v>
       </c>
       <c r="B284" t="n">
         <v>2</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>32.6</v>
+        <v>20.9</v>
       </c>
       <c r="B285" t="n">
         <v>2</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>33.725</v>
+        <v>26.84</v>
       </c>
       <c r="B286" t="n">
         <v>2</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>21.4</v>
+        <v>29.37</v>
       </c>
       <c r="B287" t="n">
         <v>2</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>36.385</v>
+        <v>40.37</v>
       </c>
       <c r="B288" t="n">
         <v>2</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>40.37</v>
+        <v>37.62</v>
       </c>
       <c r="B289" t="n">
         <v>2</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>35.245</v>
+        <v>37.335</v>
       </c>
       <c r="B290" t="n">
         <v>2</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>43.89</v>
+        <v>32.49</v>
       </c>
       <c r="B291" t="n">
         <v>2</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>33.77</v>
+        <v>34.485</v>
       </c>
       <c r="B292" t="n">
         <v>2</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>33.3</v>
+        <v>28.3</v>
       </c>
       <c r="B293" t="n">
         <v>2</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>23.085</v>
+        <v>27.17</v>
       </c>
       <c r="B294" t="n">
         <v>2</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>24.985</v>
+        <v>32.205</v>
       </c>
       <c r="B295" t="n">
         <v>2</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B296" t="n">
         <v>2</v>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>29.07</v>
+        <v>35.72</v>
       </c>
       <c r="B297" t="n">
         <v>2</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>26.8</v>
+        <v>37.73</v>
       </c>
       <c r="B298" t="n">
         <v>2</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>34.485</v>
+        <v>30.69</v>
       </c>
       <c r="B299" t="n">
         <v>2</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>31.635</v>
+        <v>28.4</v>
       </c>
       <c r="B300" t="n">
         <v>2</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>37.51</v>
+        <v>33.3</v>
       </c>
       <c r="B301" t="n">
         <v>2</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>34.865</v>
+        <v>37</v>
       </c>
       <c r="B302" t="n">
         <v>2</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>34.6</v>
+        <v>32.7</v>
       </c>
       <c r="B303" t="n">
         <v>2</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>31.57</v>
+        <v>27.2</v>
       </c>
       <c r="B304" t="n">
         <v>2</v>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>26.62</v>
+        <v>41.23</v>
       </c>
       <c r="B305" t="n">
         <v>2</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>32.23</v>
+        <v>34.58</v>
       </c>
       <c r="B306" t="n">
         <v>2</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>22.3</v>
+        <v>29.07</v>
       </c>
       <c r="B307" t="n">
         <v>2</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>20.9</v>
+        <v>43.89</v>
       </c>
       <c r="B308" t="n">
         <v>2</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>26.84</v>
+        <v>37.51</v>
       </c>
       <c r="B309" t="n">
         <v>2</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>29.37</v>
+        <v>31.46</v>
       </c>
       <c r="B310" t="n">
         <v>2</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>27.455</v>
+        <v>22.23</v>
       </c>
       <c r="B311" t="n">
         <v>2</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>34.39</v>
+        <v>32.015</v>
       </c>
       <c r="B312" t="n">
         <v>2</v>
@@ -4811,7 +4811,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>37.73</v>
+        <v>24.985</v>
       </c>
       <c r="B313" t="n">
         <v>2</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>19.855</v>
+        <v>23.085</v>
       </c>
       <c r="B314" t="n">
         <v>2</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>31.445</v>
+        <v>34.6</v>
       </c>
       <c r="B315" t="n">
         <v>2</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>26.79</v>
+        <v>35.245</v>
       </c>
       <c r="B316" t="n">
         <v>2</v>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>42.9</v>
+        <v>20.8</v>
       </c>
       <c r="B317" t="n">
         <v>2</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>20.6</v>
+        <v>36.385</v>
       </c>
       <c r="B318" t="n">
         <v>2</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>35.8</v>
+        <v>21.78</v>
       </c>
       <c r="B319" t="n">
         <v>2</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>26.73</v>
+        <v>34.865</v>
       </c>
       <c r="B320" t="n">
         <v>2</v>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>23.56</v>
+        <v>34.7</v>
       </c>
       <c r="B321" t="n">
         <v>2</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>31.46</v>
+        <v>26.62</v>
       </c>
       <c r="B322" t="n">
         <v>2</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>32.49</v>
+        <v>34.39</v>
       </c>
       <c r="B323" t="n">
         <v>2</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>30.305</v>
+        <v>31.68</v>
       </c>
       <c r="B324" t="n">
         <v>2</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>22.88</v>
+        <v>31.1</v>
       </c>
       <c r="B325" t="n">
         <v>1</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>27.61</v>
+        <v>23.3</v>
       </c>
       <c r="B326" t="n">
         <v>1</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>31.1</v>
+        <v>27.8</v>
       </c>
       <c r="B327" t="n">
         <v>1</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>25.85</v>
+        <v>24.4</v>
       </c>
       <c r="B328" t="n">
         <v>1</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>27.06</v>
+        <v>36.96</v>
       </c>
       <c r="B329" t="n">
         <v>1</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>39.4</v>
+        <v>41.42</v>
       </c>
       <c r="B330" t="n">
         <v>1</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>19.475</v>
+        <v>43.7</v>
       </c>
       <c r="B331" t="n">
         <v>1</v>
@@ -5077,7 +5077,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>34.9</v>
+        <v>21.01</v>
       </c>
       <c r="B332" t="n">
         <v>1</v>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>21.01</v>
+        <v>53.13</v>
       </c>
       <c r="B333" t="n">
         <v>1</v>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>42.94</v>
+        <v>37.715</v>
       </c>
       <c r="B334" t="n">
         <v>1</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>30.36</v>
+        <v>21.28</v>
       </c>
       <c r="B335" t="n">
         <v>1</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>20.35</v>
+        <v>39.71</v>
       </c>
       <c r="B336" t="n">
         <v>1</v>
@@ -5147,7 +5147,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>22</v>
+        <v>32.87</v>
       </c>
       <c r="B337" t="n">
         <v>1</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>41.42</v>
+        <v>21.8</v>
       </c>
       <c r="B338" t="n">
         <v>1</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>24.4</v>
+        <v>19.475</v>
       </c>
       <c r="B339" t="n">
         <v>1</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>31.24</v>
+        <v>44.7</v>
       </c>
       <c r="B340" t="n">
         <v>1</v>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>19.095</v>
+        <v>25.4</v>
       </c>
       <c r="B341" t="n">
         <v>1</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>17.67</v>
+        <v>47.6</v>
       </c>
       <c r="B342" t="n">
         <v>1</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>21.5</v>
+        <v>27.61</v>
       </c>
       <c r="B343" t="n">
         <v>1</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>44.88</v>
+        <v>50.38</v>
       </c>
       <c r="B344" t="n">
         <v>1</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>22.77</v>
+        <v>27.3</v>
       </c>
       <c r="B345" t="n">
         <v>1</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>41.1</v>
+        <v>42.24</v>
       </c>
       <c r="B346" t="n">
         <v>1</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>37.905</v>
+        <v>27.06</v>
       </c>
       <c r="B347" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>24.53</v>
+        <v>17.67</v>
       </c>
       <c r="B348" t="n">
         <v>1</v>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>45.9</v>
+        <v>39.4</v>
       </c>
       <c r="B349" t="n">
         <v>1</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>27</v>
+        <v>32.78</v>
       </c>
       <c r="B350" t="n">
         <v>1</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>35.5</v>
+        <v>37.9</v>
       </c>
       <c r="B351" t="n">
         <v>1</v>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>26.29</v>
+        <v>29.4</v>
       </c>
       <c r="B352" t="n">
         <v>1</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>23.87</v>
+        <v>28.8</v>
       </c>
       <c r="B353" t="n">
         <v>1</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>42.24</v>
+        <v>42.94</v>
       </c>
       <c r="B354" t="n">
         <v>1</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>27.3</v>
+        <v>32.45</v>
       </c>
       <c r="B355" t="n">
         <v>1</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>47.6</v>
+        <v>34.9</v>
       </c>
       <c r="B356" t="n">
         <v>1</v>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>37.9</v>
+        <v>25.52</v>
       </c>
       <c r="B357" t="n">
         <v>1</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>37.715</v>
+        <v>22</v>
       </c>
       <c r="B358" t="n">
         <v>1</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>23.76</v>
+        <v>30.36</v>
       </c>
       <c r="B359" t="n">
         <v>1</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>18.6</v>
+        <v>23.76</v>
       </c>
       <c r="B360" t="n">
         <v>1</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>50.38</v>
+        <v>17.86</v>
       </c>
       <c r="B361" t="n">
         <v>1</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>42.75</v>
+        <v>23.94</v>
       </c>
       <c r="B362" t="n">
         <v>1</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>32.45</v>
+        <v>28.16</v>
       </c>
       <c r="B363" t="n">
         <v>1</v>
@@ -5525,7 +5525,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>32.78</v>
+        <v>20.35</v>
       </c>
       <c r="B364" t="n">
         <v>1</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>25.52</v>
+        <v>31.24</v>
       </c>
       <c r="B365" t="n">
         <v>1</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>32.1</v>
+        <v>19.095</v>
       </c>
       <c r="B366" t="n">
         <v>1</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>37.3</v>
+        <v>22.1</v>
       </c>
       <c r="B367" t="n">
         <v>1</v>
@@ -5581,7 +5581,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>17.385</v>
+        <v>47.74</v>
       </c>
       <c r="B368" t="n">
         <v>1</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>39.9</v>
+        <v>18.3</v>
       </c>
       <c r="B369" t="n">
         <v>1</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>20.425</v>
+        <v>32</v>
       </c>
       <c r="B370" t="n">
         <v>1</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>35.6</v>
+        <v>39.615</v>
       </c>
       <c r="B371" t="n">
         <v>1</v>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>36.4</v>
+        <v>42.655</v>
       </c>
       <c r="B372" t="n">
         <v>1</v>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>32.5</v>
+        <v>52.58</v>
       </c>
       <c r="B373" t="n">
         <v>1</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>20.1</v>
+        <v>23</v>
       </c>
       <c r="B374" t="n">
         <v>1</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>39.27</v>
+        <v>21.565</v>
       </c>
       <c r="B375" t="n">
         <v>1</v>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>32</v>
+        <v>39.93</v>
       </c>
       <c r="B376" t="n">
         <v>1</v>
@@ -5707,7 +5707,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>18.3</v>
+        <v>18.715</v>
       </c>
       <c r="B377" t="n">
         <v>1</v>
@@ -5721,7 +5721,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>21.28</v>
+        <v>40.5</v>
       </c>
       <c r="B378" t="n">
         <v>1</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>33.2</v>
+        <v>35.42</v>
       </c>
       <c r="B379" t="n">
         <v>1</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>28.2</v>
+        <v>39.995</v>
       </c>
       <c r="B380" t="n">
         <v>1</v>
@@ -5763,7 +5763,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>20.13</v>
+        <v>34.675</v>
       </c>
       <c r="B381" t="n">
         <v>1</v>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>19.19</v>
+        <v>45.32</v>
       </c>
       <c r="B382" t="n">
         <v>1</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>36.29</v>
+        <v>23.275</v>
       </c>
       <c r="B383" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>23.275</v>
+        <v>23.32</v>
       </c>
       <c r="B384" t="n">
         <v>1</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>39.615</v>
+        <v>20.13</v>
       </c>
       <c r="B385" t="n">
         <v>1</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>34.675</v>
+        <v>36.29</v>
       </c>
       <c r="B386" t="n">
         <v>1</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>39.995</v>
+        <v>19.19</v>
       </c>
       <c r="B387" t="n">
         <v>1</v>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>28.16</v>
+        <v>25.85</v>
       </c>
       <c r="B388" t="n">
         <v>1</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>35.42</v>
+        <v>42.75</v>
       </c>
       <c r="B389" t="n">
         <v>1</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>40.5</v>
+        <v>24.97</v>
       </c>
       <c r="B390" t="n">
         <v>1</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>23.2</v>
+        <v>28.2</v>
       </c>
       <c r="B391" t="n">
         <v>1</v>
@@ -5917,7 +5917,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>27.8</v>
+        <v>29.5</v>
       </c>
       <c r="B392" t="n">
         <v>1</v>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>53.13</v>
+        <v>29.04</v>
       </c>
       <c r="B393" t="n">
         <v>1</v>
@@ -5945,7 +5945,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>39.8</v>
+        <v>21.945</v>
       </c>
       <c r="B394" t="n">
         <v>1</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>30.97</v>
+        <v>44</v>
       </c>
       <c r="B395" t="n">
         <v>1</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>32.585</v>
+        <v>39.14</v>
       </c>
       <c r="B396" t="n">
         <v>1</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>23.32</v>
+        <v>40.92</v>
       </c>
       <c r="B397" t="n">
         <v>1</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>45.32</v>
+        <v>32.585</v>
       </c>
       <c r="B399" t="n">
         <v>1</v>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>40.92</v>
+        <v>39.8</v>
       </c>
       <c r="B400" t="n">
         <v>1</v>
@@ -6043,7 +6043,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>18.715</v>
+        <v>27.28</v>
       </c>
       <c r="B401" t="n">
         <v>1</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>21.565</v>
+        <v>40.375</v>
       </c>
       <c r="B402" t="n">
         <v>1</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>44</v>
+        <v>33.55</v>
       </c>
       <c r="B403" t="n">
         <v>1</v>
@@ -6085,7 +6085,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>38.665</v>
+        <v>18.6</v>
       </c>
       <c r="B404" t="n">
         <v>1</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>29.5</v>
+        <v>33.2</v>
       </c>
       <c r="B405" t="n">
         <v>1</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>28.8</v>
+        <v>23.2</v>
       </c>
       <c r="B406" t="n">
         <v>1</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>23</v>
+        <v>28.49</v>
       </c>
       <c r="B407" t="n">
         <v>1</v>
@@ -6141,7 +6141,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>43.7</v>
+        <v>20.1</v>
       </c>
       <c r="B408" t="n">
         <v>1</v>
@@ -6155,7 +6155,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>25.4</v>
+        <v>41.1</v>
       </c>
       <c r="B409" t="n">
         <v>1</v>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>52.58</v>
+        <v>44.88</v>
       </c>
       <c r="B410" t="n">
         <v>1</v>
@@ -6183,7 +6183,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>39.93</v>
+        <v>32.5</v>
       </c>
       <c r="B411" t="n">
         <v>1</v>
@@ -6197,7 +6197,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>42.655</v>
+        <v>21.5</v>
       </c>
       <c r="B412" t="n">
         <v>1</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>46.09</v>
+        <v>45.9</v>
       </c>
       <c r="B413" t="n">
         <v>1</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>40.3</v>
+        <v>46.09</v>
       </c>
       <c r="B414" t="n">
         <v>1</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>36.005</v>
+        <v>23.87</v>
       </c>
       <c r="B415" t="n">
         <v>1</v>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>32.4</v>
+        <v>27.9</v>
       </c>
       <c r="B416" t="n">
         <v>1</v>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>29.04</v>
+        <v>20.4</v>
       </c>
       <c r="B417" t="n">
         <v>1</v>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>33.8</v>
+        <v>22.77</v>
       </c>
       <c r="B418" t="n">
         <v>1</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>40.945</v>
+        <v>48.07</v>
       </c>
       <c r="B419" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>33.06</v>
+        <v>18.05</v>
       </c>
       <c r="B420" t="n">
         <v>1</v>
@@ -6323,7 +6323,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>25.41</v>
+        <v>39.33</v>
       </c>
       <c r="B421" t="n">
         <v>1</v>
@@ -6337,7 +6337,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>22.22</v>
+        <v>31.8</v>
       </c>
       <c r="B422" t="n">
         <v>1</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>37.7</v>
+        <v>23.1</v>
       </c>
       <c r="B423" t="n">
         <v>1</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>15.96</v>
+        <v>24.64</v>
       </c>
       <c r="B424" t="n">
         <v>1</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>18.905</v>
+        <v>36.195</v>
       </c>
       <c r="B425" t="n">
         <v>1</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>21.89</v>
+        <v>17.8</v>
       </c>
       <c r="B426" t="n">
         <v>1</v>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>21.7</v>
+        <v>22.22</v>
       </c>
       <c r="B427" t="n">
         <v>1</v>
@@ -6421,7 +6421,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>20.79</v>
+        <v>24.415</v>
       </c>
       <c r="B428" t="n">
         <v>1</v>
@@ -6435,7 +6435,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>34.5</v>
+        <v>25.2</v>
       </c>
       <c r="B429" t="n">
         <v>1</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>36.7</v>
+        <v>42.35</v>
       </c>
       <c r="B430" t="n">
         <v>1</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>23.1</v>
+        <v>20.615</v>
       </c>
       <c r="B431" t="n">
         <v>1</v>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>31.8</v>
+        <v>21.56</v>
       </c>
       <c r="B432" t="n">
         <v>1</v>
@@ -6491,7 +6491,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>22.1</v>
+        <v>31.2</v>
       </c>
       <c r="B433" t="n">
         <v>1</v>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>21.12</v>
+        <v>45.54</v>
       </c>
       <c r="B434" t="n">
         <v>1</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>17.48</v>
+        <v>37.905</v>
       </c>
       <c r="B435" t="n">
         <v>1</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>17.195</v>
+        <v>28.82</v>
       </c>
       <c r="B436" t="n">
         <v>1</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>23.9</v>
+        <v>25.41</v>
       </c>
       <c r="B437" t="n">
         <v>1</v>
@@ -6561,7 +6561,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>35.15</v>
+        <v>33.06</v>
       </c>
       <c r="B438" t="n">
         <v>1</v>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>35.64</v>
+        <v>40.945</v>
       </c>
       <c r="B439" t="n">
         <v>1</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>29.165</v>
+        <v>33.8</v>
       </c>
       <c r="B440" t="n">
         <v>1</v>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>39.52</v>
+        <v>36.7</v>
       </c>
       <c r="B441" t="n">
         <v>1</v>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>46.75</v>
+        <v>34.5</v>
       </c>
       <c r="B442" t="n">
         <v>1</v>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>29.2</v>
+        <v>20.79</v>
       </c>
       <c r="B443" t="n">
         <v>1</v>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>41.895</v>
+        <v>21.7</v>
       </c>
       <c r="B444" t="n">
         <v>1</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>21.09</v>
+        <v>21.89</v>
       </c>
       <c r="B445" t="n">
         <v>1</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>24.89</v>
+        <v>21.09</v>
       </c>
       <c r="B446" t="n">
         <v>1</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>17.955</v>
+        <v>24.89</v>
       </c>
       <c r="B447" t="n">
         <v>1</v>
@@ -6701,7 +6701,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>43.34</v>
+        <v>17.955</v>
       </c>
       <c r="B448" t="n">
         <v>1</v>
@@ -6715,7 +6715,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>37.145</v>
+        <v>43.34</v>
       </c>
       <c r="B449" t="n">
         <v>1</v>
@@ -6729,7 +6729,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="B450" t="n">
         <v>1</v>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>47.74</v>
+        <v>41.895</v>
       </c>
       <c r="B451" t="n">
         <v>1</v>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>24.415</v>
+        <v>29.2</v>
       </c>
       <c r="B452" t="n">
         <v>1</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>33.55</v>
+        <v>37.7</v>
       </c>
       <c r="B453" t="n">
         <v>1</v>
@@ -6785,7 +6785,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>28.49</v>
+        <v>26.29</v>
       </c>
       <c r="B454" t="n">
         <v>1</v>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>29.4</v>
+        <v>40.3</v>
       </c>
       <c r="B455" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>36.96</v>
+        <v>36.005</v>
       </c>
       <c r="B456" t="n">
         <v>1</v>
@@ -6827,7 +6827,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>44.7</v>
+        <v>32.4</v>
       </c>
       <c r="B457" t="n">
         <v>1</v>
@@ -6841,7 +6841,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>32.87</v>
+        <v>17.385</v>
       </c>
       <c r="B458" t="n">
         <v>1</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>39.71</v>
+        <v>35.6</v>
       </c>
       <c r="B459" t="n">
         <v>1</v>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>23.3</v>
+        <v>36.4</v>
       </c>
       <c r="B460" t="n">
         <v>1</v>
@@ -6883,7 +6883,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>21.8</v>
+        <v>20.425</v>
       </c>
       <c r="B461" t="n">
         <v>1</v>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>23.94</v>
+        <v>39.9</v>
       </c>
       <c r="B462" t="n">
         <v>1</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>24.97</v>
+        <v>37.3</v>
       </c>
       <c r="B463" t="n">
         <v>1</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>21.945</v>
+        <v>38.665</v>
       </c>
       <c r="B464" t="n">
         <v>1</v>
@@ -6939,7 +6939,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>39.14</v>
+        <v>24.53</v>
       </c>
       <c r="B465" t="n">
         <v>1</v>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>26.2</v>
+        <v>22.88</v>
       </c>
       <c r="B466" t="n">
         <v>1</v>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>18.05</v>
+        <v>39.1</v>
       </c>
       <c r="B467" t="n">
         <v>1</v>
@@ -6981,7 +6981,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>39.33</v>
+        <v>24.75</v>
       </c>
       <c r="B468" t="n">
         <v>1</v>
@@ -6995,7 +6995,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>25.2</v>
+        <v>34.01</v>
       </c>
       <c r="B469" t="n">
         <v>1</v>
@@ -7009,7 +7009,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>42.35</v>
+        <v>38.285</v>
       </c>
       <c r="B470" t="n">
         <v>1</v>
@@ -7023,7 +7023,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>20.615</v>
+        <v>31.3</v>
       </c>
       <c r="B471" t="n">
         <v>1</v>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>21.56</v>
+        <v>19.3</v>
       </c>
       <c r="B472" t="n">
         <v>1</v>
@@ -7051,7 +7051,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>31.2</v>
+        <v>35.09</v>
       </c>
       <c r="B473" t="n">
         <v>1</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>17.86</v>
+        <v>49.06</v>
       </c>
       <c r="B474" t="n">
         <v>1</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>45.54</v>
+        <v>17.765</v>
       </c>
       <c r="B475" t="n">
         <v>1</v>
@@ -7093,7 +7093,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>28.82</v>
+        <v>26.505</v>
       </c>
       <c r="B476" t="n">
         <v>1</v>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>24.64</v>
+        <v>22.04</v>
       </c>
       <c r="B477" t="n">
         <v>1</v>
@@ -7121,7 +7121,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>36.195</v>
+        <v>35.9</v>
       </c>
       <c r="B478" t="n">
         <v>1</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>17.8</v>
+        <v>37.145</v>
       </c>
       <c r="B479" t="n">
         <v>1</v>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>27.9</v>
+        <v>39.52</v>
       </c>
       <c r="B480" t="n">
         <v>1</v>
@@ -7163,7 +7163,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>40.375</v>
+        <v>18.905</v>
       </c>
       <c r="B481" t="n">
         <v>1</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>27.28</v>
+        <v>15.96</v>
       </c>
       <c r="B482" t="n">
         <v>1</v>
@@ -7191,7 +7191,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>48.07</v>
+        <v>47.52</v>
       </c>
       <c r="B483" t="n">
         <v>1</v>
@@ -7205,7 +7205,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>44.77</v>
+        <v>21.12</v>
       </c>
       <c r="B484" t="n">
         <v>1</v>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>23.8</v>
+        <v>17.48</v>
       </c>
       <c r="B485" t="n">
         <v>1</v>
@@ -7233,7 +7233,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>46.2</v>
+        <v>34.295</v>
       </c>
       <c r="B486" t="n">
         <v>1</v>
@@ -7247,7 +7247,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>46.7</v>
+        <v>23.65</v>
       </c>
       <c r="B487" t="n">
         <v>1</v>
@@ -7261,7 +7261,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>35.435</v>
+        <v>20.7</v>
       </c>
       <c r="B488" t="n">
         <v>1</v>
@@ -7275,7 +7275,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>37.8</v>
+        <v>19.57</v>
       </c>
       <c r="B489" t="n">
         <v>1</v>
@@ -7289,7 +7289,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>38.285</v>
+        <v>37.525</v>
       </c>
       <c r="B490" t="n">
         <v>1</v>
@@ -7303,7 +7303,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>34.01</v>
+        <v>37.8</v>
       </c>
       <c r="B491" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>24.75</v>
+        <v>19</v>
       </c>
       <c r="B492" t="n">
         <v>1</v>
@@ -7331,7 +7331,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>39.1</v>
+        <v>21.3</v>
       </c>
       <c r="B493" t="n">
         <v>1</v>
@@ -7345,7 +7345,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>37.525</v>
+        <v>42.46</v>
       </c>
       <c r="B494" t="n">
         <v>1</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>19.57</v>
+        <v>38.95</v>
       </c>
       <c r="B495" t="n">
         <v>1</v>
@@ -7373,7 +7373,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>41.69</v>
+        <v>38.19</v>
       </c>
       <c r="B496" t="n">
         <v>1</v>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>18.5</v>
+        <v>42.68</v>
       </c>
       <c r="B497" t="n">
         <v>1</v>
@@ -7401,7 +7401,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>20.3</v>
+        <v>40.81</v>
       </c>
       <c r="B498" t="n">
         <v>1</v>
@@ -7415,7 +7415,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>20.4</v>
+        <v>17.4</v>
       </c>
       <c r="B499" t="n">
         <v>1</v>
@@ -7429,7 +7429,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>34.87</v>
+        <v>20.3</v>
       </c>
       <c r="B500" t="n">
         <v>1</v>
@@ -7443,7 +7443,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>44.745</v>
+        <v>18.5</v>
       </c>
       <c r="B501" t="n">
         <v>1</v>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>29.545</v>
+        <v>41.69</v>
       </c>
       <c r="B502" t="n">
         <v>1</v>
@@ -7471,7 +7471,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>23.54</v>
+        <v>39.27</v>
       </c>
       <c r="B503" t="n">
         <v>1</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>40.47</v>
+        <v>34.87</v>
       </c>
       <c r="B504" t="n">
         <v>1</v>
@@ -7499,7 +7499,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>40.66</v>
+        <v>44.745</v>
       </c>
       <c r="B505" t="n">
         <v>1</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>36.6</v>
+        <v>29.545</v>
       </c>
       <c r="B506" t="n">
         <v>1</v>
@@ -7527,7 +7527,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>17.4</v>
+        <v>23.54</v>
       </c>
       <c r="B507" t="n">
         <v>1</v>
@@ -7541,7 +7541,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>27.075</v>
+        <v>40.47</v>
       </c>
       <c r="B508" t="n">
         <v>1</v>
@@ -7555,7 +7555,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>19</v>
+        <v>40.66</v>
       </c>
       <c r="B509" t="n">
         <v>1</v>
@@ -7569,7 +7569,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>21.3</v>
+        <v>36.6</v>
       </c>
       <c r="B510" t="n">
         <v>1</v>
@@ -7583,7 +7583,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>42.46</v>
+        <v>35.4</v>
       </c>
       <c r="B511" t="n">
         <v>1</v>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>38.95</v>
+        <v>27.075</v>
       </c>
       <c r="B512" t="n">
         <v>1</v>
@@ -7611,7 +7611,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>38.19</v>
+        <v>32.1</v>
       </c>
       <c r="B513" t="n">
         <v>1</v>
@@ -7625,7 +7625,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>42.68</v>
+        <v>35.5</v>
       </c>
       <c r="B514" t="n">
         <v>1</v>
@@ -7639,7 +7639,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>40.81</v>
+        <v>27</v>
       </c>
       <c r="B515" t="n">
         <v>1</v>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>35.4</v>
+        <v>45.43</v>
       </c>
       <c r="B516" t="n">
         <v>1</v>
@@ -7667,7 +7667,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>47.52</v>
+        <v>43.12</v>
       </c>
       <c r="B517" t="n">
         <v>1</v>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>35.9</v>
+        <v>17.195</v>
       </c>
       <c r="B518" t="n">
         <v>1</v>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>22.04</v>
+        <v>29.1</v>
       </c>
       <c r="B519" t="n">
         <v>1</v>
@@ -7709,7 +7709,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>26.505</v>
+        <v>23.9</v>
       </c>
       <c r="B520" t="n">
         <v>1</v>
@@ -7723,7 +7723,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>17.765</v>
+        <v>35.15</v>
       </c>
       <c r="B521" t="n">
         <v>1</v>
@@ -7737,7 +7737,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>25.65</v>
+        <v>35.64</v>
       </c>
       <c r="B522" t="n">
         <v>1</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>36.52</v>
+        <v>29.165</v>
       </c>
       <c r="B523" t="n">
         <v>1</v>
@@ -7765,7 +7765,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>43.01</v>
+        <v>26.9</v>
       </c>
       <c r="B524" t="n">
         <v>1</v>
@@ -7779,7 +7779,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>33.5</v>
+        <v>46.75</v>
       </c>
       <c r="B525" t="n">
         <v>1</v>
@@ -7807,7 +7807,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>49.06</v>
+        <v>33.5</v>
       </c>
       <c r="B527" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>35.09</v>
+        <v>43.01</v>
       </c>
       <c r="B528" t="n">
         <v>1</v>
@@ -7835,7 +7835,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>34.3</v>
+        <v>36.52</v>
       </c>
       <c r="B529" t="n">
         <v>1</v>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>25.1</v>
+        <v>25.65</v>
       </c>
       <c r="B530" t="n">
         <v>1</v>
@@ -7863,7 +7863,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>24.09</v>
+        <v>28.38</v>
       </c>
       <c r="B531" t="n">
         <v>1</v>
@@ -7877,7 +7877,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>32.12</v>
+        <v>24.09</v>
       </c>
       <c r="B532" t="n">
         <v>1</v>
@@ -7891,7 +7891,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>29.1</v>
+        <v>25.1</v>
       </c>
       <c r="B533" t="n">
         <v>1</v>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>43.12</v>
+        <v>34.3</v>
       </c>
       <c r="B534" t="n">
         <v>1</v>
@@ -7919,7 +7919,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>34.295</v>
+        <v>43.4</v>
       </c>
       <c r="B535" t="n">
         <v>1</v>
@@ -7933,7 +7933,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>45.43</v>
+        <v>39.2</v>
       </c>
       <c r="B536" t="n">
         <v>1</v>
@@ -7947,7 +7947,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>23.65</v>
+        <v>35.7</v>
       </c>
       <c r="B537" t="n">
         <v>1</v>
@@ -7961,7 +7961,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>20.7</v>
+        <v>26.07</v>
       </c>
       <c r="B538" t="n">
         <v>1</v>
@@ -7975,7 +7975,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>31.3</v>
+        <v>39.425</v>
       </c>
       <c r="B539" t="n">
         <v>1</v>
@@ -7989,7 +7989,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>28.38</v>
+        <v>40.48</v>
       </c>
       <c r="B540" t="n">
         <v>1</v>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>43.4</v>
+        <v>38.9</v>
       </c>
       <c r="B541" t="n">
         <v>1</v>
@@ -8017,7 +8017,7 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>39.2</v>
+        <v>47.41</v>
       </c>
       <c r="B542" t="n">
         <v>1</v>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>35.7</v>
+        <v>35.435</v>
       </c>
       <c r="B543" t="n">
         <v>1</v>
@@ -8045,7 +8045,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>26.07</v>
+        <v>46.7</v>
       </c>
       <c r="B544" t="n">
         <v>1</v>
@@ -8059,7 +8059,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>39.425</v>
+        <v>46.2</v>
       </c>
       <c r="B545" t="n">
         <v>1</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>40.48</v>
+        <v>23.8</v>
       </c>
       <c r="B546" t="n">
         <v>1</v>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>38.9</v>
+        <v>44.77</v>
       </c>
       <c r="B547" t="n">
         <v>1</v>
@@ -8101,7 +8101,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>47.41</v>
+        <v>32.12</v>
       </c>
       <c r="B548" t="n">
         <v>1</v>
@@ -8115,7 +8115,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>19.3</v>
+        <v>30.97</v>
       </c>
       <c r="B549" t="n">
         <v>1</v>
